--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New File\01 files and documents\SCIE\Additional\Python\projects\econometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847B029-5E5A-4F3F-A86D-C04CF5BF843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D259BBB-5262-4A49-96F0-12BAD5ABAA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,10 +161,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,8 +173,10 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +535,7 @@
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -558,7 +569,7 @@
       <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -592,7 +603,7 @@
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9642,6 +9653,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{B0658F58-982A-4CF4-A7C5-4D640D1EFB6A}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{FC044F96-D94F-4A1B-95B7-E4454EDBB362}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{32EFF3C2-2E2A-4B50-86B9-45B749301EFC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>